--- a/Testdata/TC_Unit Manipulation_09.xlsx
+++ b/Testdata/TC_Unit Manipulation_09.xlsx
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>pTUAAB+LCAAAAAAAAAPtW1tvG8cV/isLPSVAqdmlbpQy3oAiJYUoL4JIxVZejOHuUNxqucvuRRLf0ociQHoBiiYB0ivyUDQI0NQPaeHaRftfAkt2n/oXemZmL7PLpcWVVbRFZRjwzrnM5cyZc74zHON3Lye2ck4933KdByvaqrqiUMdwTcs5fbASBqOKtrnyro73Lg1qHxKPTGgAwgpoOf7OpW89WBkHwXQHoYuLi9WLtVXXO0VVVdXQo067b4zphFQsxw+IY9CVRMu8WWtFxw1z0qEBMUlAhOaDlVa/tdqgltEEWoc45JR6q7uhbznU9/ecwAos6jNNj5KANpqd98XC9Orq5qqG0Rw9ldwNLdsUchlJQY/kYFg6sCZUr6pVtaJVK+raQFN3Nmo72tbq9mbtg1gxEcRt4gd96p1bBif0AzKZcnWtqq5p6kZN28KoUAj6Sg2g455tHtFzy6dmg9q2X8oiKNrAuhHAqssZU8VI0o06uv0UDjwyHQ+swKZl1fddjxpgqFuN3aUXPS+y32DaBu5gbHnBrElmpfs69qnXmzJrlFPVcdN1grpNveB4CptKTdhzYOiBF1KMFjBTpablG/BtOSE19RGxfVkpw8QPXe/MnxKDduHAItbHhWO7xATPCiw/sIx00DkGPvTcKfQIg++6trkPvUbCBYyk55YDJmbD7rruWTq7IibmPsC9AfZ0QoJYfI6O+2P3oufYs3449A3PGlKzuRtLF/IwO3mRdiP0A3cCs0hJWNAkygz+wEnLk3GTGtaE2Ic2GNHX16CXDAHXw8AdWUHDtcOJ48dzylHxQ1jRgF4mK0zauAeb6zCju07LieWFmQtZWYUj9yIZc57BjSCR674Rb/c8Iy/cBFq8ffMcviNslfuWDYlA3guJmvWK/pjSoNAlBAezmLfPUou+O2NjYpRSMHgmeDdQdZYgKvzvQFV3+F8YOWHjPceM5DQenNdkuZiJu+GkN4QTfM7XpGvAy5EwrMLetYlzBtSHVjDu1uPZF3CwWPNC+XkehrM6tcmMkxO7yDTccgw7NKkIAS1nxJ2SzU1s40I2niO14VTrmDizwWwKIde3dgL4eLACSXjHDzxI8yu64YZO4M1YrMAoEr1Jxw+HDh+A2EvrjDz6/RDQxWw/dIyGay4/mimsc+xYwfIzdENPBMDlVbj1WCwM/SZlUYWH+aX1jTJr8r1S4hOHTlzHMpa3NhiZzd68xUL8+FQtrUHF+Vpa3oZMLhIdO+tLq3kADSG1lRqm7vuuYXFnjY6HKemjBUemSUcktAGWBZBUT5Nomyfjun+Wl5FJ+Niz45inM9DrA+o1zMmqAXCBIbtVw50wAgKw+bCPkSzPMI9B95zTNnFOQ0AVSVzJ05OIyzLiwCOOz5aTgIhc8C0WwnGcEuBGF8GrF3JHEMHLBS5GOTk8oJOp6xG7A4ax9iO3ixASgI8OCcZRC7KZTY3YyChVTbSyM4snfpMYT0tiGezAR2EyR+RCbC0CX6cyKQ2zVXbgWNoNYltDT0TVOHkX8WDDUjgYx1+2uJLQMN4DqLEg336XzhjwThsRnbusFjOEA7NAqveP1mvVDXVjA7AMa2O+4gP3PFAA9VJAhUpFGZBL5R2l5ZjWuWWGxIZPcD5YmTBPlIJKaco6eD+O73wKdZhnlpIVAGRxakH6mBdMOKmCfkKJZ88kQbHEtmuA3PUnf7969qvrT/589cPfVV5++dOrj7/4519/8eLpVy+ePRNUsUYhjQdkaFM+o8FuraaurYODJSTMrIo4CjZDI+C0kxMOfpM2joo13mjstRoH7V0eSBJirC5yCWJ14MwN02ZfrIIPxPcSxS4gRPRBHJiidoYr5Sad1WXnNCst8xcpClu8fP77l8//sFA7MlgKsrTt7RovfG/GYNqcXILB2pngz4TXK+pGpVqVhHMy+EhE/sROLVOH+nlb1bZULQniZuLFRUJ5VtTTgJyinJ4gNQQuSlxAbsdM7vkD6gcJW5wFqRH56J9+9OqPn2akIutGlGwvMDmOX9hgKG7wrrtHA6XfOz5q7CmDvT7zk5QnyYnOXyMcjZ4cqIxTOQ6c8u8okNUhiykrUPysKO5IocQYKzM4itJBzDhbEVUMdMsu87M88NxwKnZEUkipBZJJOCnUKAg2nMftORd1UlaBuJjr1V++KVKIFtJMkax+1NlVJk7il5yGMxxBkvjRqf38by+efsSC25OfXT39QaaHaJzkBgD8HE6T3EzcHkJelGhyFPywz415pj6WEktEZBXUoWs5ga9r67x4iloYVDXWG/8XtyaQ63jH3F5Az1Hwe8Tfuwyig613McoSYJ5TAmnWTcvMhCBieGrXf/z6N9e//Ob6syevPvrq6uMvr3782cvnv3319Rfi1F1/+uT6J19HUT6fCPhcWPEq0J/Cr0IMhZ1GhSVt5dsPf644bqAA1lBCHpG+/fBzqTM2UY5K0p4ByyUTyU5hTlRWZnqKNJVkDhm9REVk/gZLYWuJRJTE3KllpIN8UGFdsXPHGW+1BpXQp4oLMOptWElWOFVeVi9SESn1cEutatWIK2bDljAkvmT6A9sdAoyIGfyuISeS0Xq9QirLxzto93br7VRETKLnmdRjbig+cMuP0WTsXhIFuIDyjNBmV0JzYvMsHH9JoQtFdyujuslCnq4W3V9kJHAj9DyBgpzoTr4fTgH5xjdwi/n8VlICu10BTGX4m7ZbzSwf2hIXkl+WzQicz8NRxBKhqeWzaxyBXbvMNGkTeJmbTDBHdO0u0BUgSeohFmv2PM/1CgNOyonFOgCbIYqg1OKJDGJDCohtpnsVE+Igdw+176H2PdS+h9r3UPv/DWoH40VQm3EWQO0CxfIIW1uMsLXHNcPQhmvVrQqtEVJZN9bMyvb2aLMy1IwtTVs3NrcM9T8AvuPNKviRYeEcls9Kt9n317liQdV015H0jXP264PpDUHu5poNvWbH7iup+0rqrispLamkYiTui7v+3C8AEIxM/bjbGjzu1Lutw+N2fdDqsVqBIQgpoQmR4/agddhu7R29NRi7oU8c8x1FVDsBN5YyYT8yTG2LvUJivmQ5EJ+pEsKZVxxYwdvsNxopTaaPlsTsknYE5yEMnNKgk/Qao/r3iR3CHryHkfjiYFVv9Lr9Qb0L2T369SjXZdEIZDq1eeJYNMh+vd3fKzcOkpclYG2+OJGoyQ6lEbPuWcEYOrCM3pSK3zJ8CK1zcokqKwJTJaVIi9eJ+TI7ClOuUKC3LbuQKEJQJg6jXMrJt+OIKNORVM0gqUBBReUIytQf6I1rDbSwRljMiWeaJqzCi4SCfFYot6gyKBS+uTLIw3lOWR7so0ziQ/NgPiWhhTgdzYFxVAyPF5DnVBL3LyQWeVUCWgqJ8QASiEQCs6B5yInu5vIWyThNfSOouDx6QBIBzWfzLAll0i/Kp1qZgKS8iAqyYI6GsmkMRVEJ/a9d+kVj/zff+qHb3POhu7vOkxJL0xqNTgBaPkrfVMUEMeO0F9YQOXUOrCAJzUi+ET28ultnuUPMU9T7/fVz2evn5avxf8vNNEqfj6TAqUltwHllHynH2h33/Na64BZlVVt+zzYjO5d7AZOYJe1AfjLOfKjsZOqeB8CDvTEt/ca7bTlnrXKr19fJaNNc39jcNrc31eE2qW0YQ3NY3TRGpmoO1wFN8U5ZkcC6mAA8ZM+Jyg2isbAlq6dPv46Ic1qyN2FgrsieR4Gl+FmNCuWkjfctzw8eMWwQfQnKSUI5EXjykV4VoPGRaJ/oaxuCAAJIHgxlZh2HnkD87wLXblsTq+QTKjWOT9lOwA2mUwEPy25oo9np0ssAI6kHgBLD7wFqEW8Oy/QmThXURYl+3Fc/HJbuDsXKh8BnjnU77T0TUOfttflbfct+gwlwrHnbLlqOb52Og7L7Wts0abVGSaW6tmZU1ummWiGGtl6ho+1aTd0ytBF7FZ50DonDohclB2HpxvJDYpfXQ7n/bKX/Cz7OnMKlNQAA</t>
+          <t>PzYAAB+LCAAAAAAAAAPtW1lz2zgS/issP2UeZJCSLctehFO6nOGsDpclT5J9mYJISMKah4aHbf37bQA8QIpyRMez+7BOuSpCXwAaQPfXEIR/ffFc7YmGEQv8z2fGuX6mUd8OHOZvPp8l8bpldM9+NfH4xabuHQmJR2MQ1kDLj25eIvb5bBvHuxuEnp+fz58750G4QW1dN9C36WRhb6lHWsyPYuLb9CzXcn6sdWbioeNNaUwcEhOp+fnMWljnQ8rsEdCmxCcbGp4Pkoj5NIrGfsxiRiOuGVIS0+Fo+oecmNk+754bGB3QC8lBwlxHypUkJT2Vg27pknnUbOttvaVftYzOUr+6afdu9MvzTvvqX5liLognJIoXNHxitiAsYuLthLp+ZXT0q3ZPv8SoVghsFQ4w8dx17ukTi6gzpK4bNfIIShewb8cw62bO1DFSdFNDbx/Cl5DstksWu7Sp+m0QUhsc9aa+Z/R5Hqb+W+4mwF1uWRjvR2Tf2NZDRMP5jnujmaqJR4Ef910axg87WFTqwJoDw4zDhGJ0hFkojVhkw2fmJ9Qx18SNVKUSE38NwsdoR2w6gwOLuI1n3w2IAzsrZlHM7KLTAwa+C4MdWITOB4Hr3ILVVLiGkVu2fHAx73YQBI/F6OqYWOwBsRtgTT0SZ+IHdLzYBs9z390vklVkh2xFndEgk67lYX7yUu1hEsWBB6MoSFjSFMp0ivbwDw5blYNH1GYece9c8GNkdsBQiYD7SRysWTwM3MTzo2xYFSr+CpNa0pd8knkbz2F9fe73wLf8TF56upZVVrgPnvM+DxnCDwq5H9nZih8yqsIjoGUreMgRi8JnectcyAXqcijU8sZYbCmNa3eF5GAe9m55djEHe94nRgUFw+aEDQ5Uk+eIlvhb6vqN+IOeczYe+04qZ+gto93qqHIZE88Sb76CQ/wk5mQawKuQMMzCHbjEfwTqVxZvZ/1s9DUcLOd8VP6Qh+G47lyyF+TcLyoNW77tJg6VUcDy12JT8rHJZTzKxgekCRxsExN/v9zvIOpG7CaGD5/PIA/fRHEImf7MtIPEj8M9DxcYpaI/0omSlS86IO7JOuuQ/pUAwNjfJr49DJzTe3Okdx58Fp8+wiAJZQw8XUV4j4fDJBpRHlhEpD9Z324ypyhsJO751At8Zp/ubXAyH73zholE2ak6WYPK83WyvAvJXOY6ftZPVgsBHUJ2a9RNP4oCm4nNmh4PR9FHR47MiK5J4gIyiyGvbvJoWyXjfvRYlVFJ+CF0s5hnctwbAfC1He/cBsTAwd25HXicgABvfl1gpMpz2GPTsb+ZEH+TALDI40qVnkdcnhSXIfEjPp0cR1SCb70QzuKUxDemDF7zRGwEGbwC4GJUkcNL6u2CkLhTcAy7TbddCpIAf0xJvE1bkM1camdORoVqrlUeWTbwH4mJtCSnwQ98GiYrRCHE5yIhdiFT0DCf5RSOpTskLluFMqpmybuOBwtWIMIs/vLJNUSH2RpAmQX59p90z7F30UjpYssaGUNuYB5IzcX9Re+qd9FpA5bhbSxm/Gk0/AVwm5MIp91oEwbxd82oo80gxIE/tS8kutGm08HyAdKgcFKaiN6gr2ri2yzWi+FMYcuWCGU+gIwNg0xyIJczCnlzCtBz6+4VSTnbSWCD4Cc4ecFOu2cui+TYHyEw8HFqfZd42pCwsDRjqYaXZOVSMbTloNfrXV/BpstJmHsaCXDMfSFo1mgmQHFOwGkRJxrDsTW8u5+K6JITM32ZYBCvD/dBUjQXcj6iJ7HAKNsXUsQcZtEqbZe4SsIy1YKgrKNKHVOXLlEcedRE6rwSRuueiNHaHKPptRhtUkoOacENRq8V4YoMvpeZIXeZBQX95YXR7uh6Ow/yTr6/64SqrNTSkmxQRU+ShhI3pduBn7yinTHFabB8J4DzzkguIw+J0pCerBdMvZxSaoRgpALs8J5R1hBdjBjUzTGEzphqX6hP+ZkN1tqcuRrxHX4swDeFuKIqO+X6j0Jf+x1SvNCfMn9PHjWH+OJYDRKPqUbS0eanU91xh2e3tB/rqNLcq4rVHr+EQbI7iDsFtUayNgIdciuawmeHQyt4NfJysIMEcijx65TS2YwKyGtOZxrEKy3e5ntUkHGVKamKiLT1exITIXPPVknJRNpXfmMAmx6OltrMzwDEwjQrVSj460J49VH/U8lCKZGXW3cB8+PI7F2ISittYVA1uDXxP7Y8SIzCsPAb0CsU/BuJxi9xespNiL1lAoxzR2CbBkVNmhNkcC98C03qatbo/H4w0I2LG+1IntBKySRNCNWcIUYnPh1YfC1rap/UGK0a51MRmkVP2fi0MZzgDT9tVQlVxxRSe2UMJYVcVgKHIWS73lUukea7YMfswvpCxIC89wq3kM56XoiYowimMjK/3vW61x0j5cr+ODhakYjWREKYBvVY4mmZjLiXqEiXDJysW6jJED4bzWfjhdUvpOTo5iEEPr4n5QdsRRkOzfaaQgEu4EMbzndMD8UOWTj7pAQ0lN7KrPsOv4s39bqbj5IEHiZhKFGTn17oL5IdYOb84uW4gLjTVHDyTGJaFTkXbWtU5kNb4UJeLLM5QfBFaEpZMkxZEb8BkrB3xn1TNIFXugcFf6SX9hKEPTFYB8QjzzgMg7A2/BScTGwKiBtiCipcnssg3qVE506xWBkhC3kfKP0DpX+g9A+U/oHSP1B6DUo3dPHvFahelfgv4HXjOF43/rzq0A7pXOgtsja6rYsevWytrg2ntdbJ1Yp2ete02/0fQPlsIWu+3zg6hpMz2Zu2xGvbtL4Ie+9g+04J//Woe0o0/HE9iF5Zv48q7aNK+1urNCOv0jKQH8lvICrfS0CccsyHmbX8c9qfWXcPk/7SmvMyhIMPJdtJkYfJ0rqbWOP7T8ttkESQlP+hyUIq1gLf3Wse/+pj5zL+PMoPYo35EAuolkAs0HyYxC/8myMlhxavqeTo8nZaKUB42NB4mlvNCoY/iJvA4vyGkfwkMK85nM8Wy/5sCaslv9OqmKzrgex2rsgpxzq57U8W42b9IHVaEhxX6x6Fmq9QEUz7IYu3YIDZ8x2V37AA9DmUy1V5fVkoaXVaogStlvBpzAqkAn1rRYdkUYNK8RlVslG1nYVHlY6U6ggpdQ6qq2pQqYpBP12xoKM1xnFONtIikdVeUtTkuVq5Y0VFrfCPi4pqJSAop9cJqJQK0WEJUJDQUVSPDnA6qsfOR8gHKvn2ryXW7aocz9QSsw4UfIkknEGHoBS9zy0xUiGc/lMo8nQogRQCOkzcZRIqZV5UzbIqASkJE9WkxwoNlTMZSqMS+rhQfPcLRfSWK0T0fjeFSmIZsfX6OyDgb8VLr4wgR1xY4Q2ZUw/AClLQjLI30udg77tZ3hHz1Fn//9qJ73K1fXql/rfceqPiVUuBnEbUBaDX9Pl0pj0Nnt6sC/uiqaoVzV0n9XOzhzm5WwoD6mN2voeaDqYfhoA8+NPXxq/PJ8x/tJrN3tSNXo/qhFx325dtavcu2z376qqzcgxD1+0VwClhlFcJ3IQH+JC/cmrWicHjlqpevEi7J/6moTXpYKHIX22Bp+Q1KSjxF1tZG9+yMIq/cXCQfpKU7znluwSU38y2RI3fZPu72Ut/eAECSO0MlUadxZ5Y/u4hcCfMYw1fdulZfCobgW2w20l82HRBh6PpjL7EGCkWAEus/g2wRT6FbGJNnioojHL9zNYiWTU2hzLlO+DzjfU27bEDsPPt2uJXBMz9iQEIsPlWE5Yfsc02brquRndl9NrXTqtLL2jr4qLba11frpzW9TXp9GjXvrD1Hn/7nRqHxMHoc8NOeLphUULc5nqo8jMw8z9awhNFPzYAAA==</t>
         </r>
       </text>
     </comment>
@@ -39,12 +39,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="yyyy"/>
+    <numFmt numFmtId="164" formatCode="MM/yyyy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="164" formatCode="yyyy"/>
+    <numFmt numFmtId="164" formatCode="MM/yyyy"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,6 +63,23 @@
     </font>
     <font>
       <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -96,20 +113,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -404,7 +428,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -418,34 +442,34 @@
       </c>
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>Govt Revenue - Tax ; Individual Income</t>
+          <t>(DC)Production: Liquefied Natural Gas: MMBTU</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>Govt Revenue - Tax ; Individual Income</t>
+          <t>(DC)Production: Liquefied Natural Gas: MMBTU</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" s="3" t="inlineStr">
         <is>
           <t>Region</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Indonesia</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Indonesia</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" s="3" t="inlineStr">
         <is>
           <t>Subnational</t>
         </is>
@@ -454,105 +478,105 @@
       <c r="C3" s="2"/>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="A4" s="3" t="inlineStr">
         <is>
           <t>Frequency</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>Annual, ending "Dec" of each year</t>
+          <t>Monthly</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>Annual, ending "Dec" of each year</t>
+          <t>Monthly</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="A5" s="3" t="inlineStr">
         <is>
           <t>Unit</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>RMB mn</t>
+          <t>MN BTU th</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>RMB th</t>
+          <t>1000000 BTU th</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="inlineStr">
+      <c r="A6" s="3" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>NRT SOURCE TEST</t>
+          <t>Directorate General of Oil and Gas</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>NRT SOURCE TEST</t>
+          <t>Directorate General of Oil and Gas</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="inlineStr">
+      <c r="A7" s="3" t="inlineStr">
         <is>
           <t>Status</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Discontinued</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Discontinued</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="inlineStr">
+      <c r="A8" s="4" t="inlineStr">
         <is>
           <t>Series ID</t>
         </is>
       </c>
-      <c r="B8" s="3">
-        <v>310901701</v>
-      </c>
-      <c r="C8" s="3">
-        <v>310901701</v>
+      <c r="B8" s="5">
+        <v>254123002</v>
+      </c>
+      <c r="C8" s="5">
+        <v>254123002</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="inlineStr">
+      <c r="A9" s="3" t="inlineStr">
         <is>
           <t>SR Code</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>SR4825055</t>
+          <t>SR4878432</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>SR4825055</t>
+          <t>SR4878432</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="inlineStr">
+      <c r="A10" s="3" t="inlineStr">
         <is>
           <t>Mnemonic</t>
         </is>
@@ -561,7 +585,7 @@
       <c r="C10" s="2"/>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="inlineStr">
+      <c r="A11" s="3" t="inlineStr">
         <is>
           <t>Function Description</t>
         </is>
@@ -574,300 +598,850 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="inlineStr">
+      <c r="A12" s="3" t="inlineStr">
         <is>
           <t>First Obs. Date</t>
         </is>
       </c>
-      <c r="B12" s="4">
-        <v>36130</v>
-      </c>
-      <c r="C12" s="4">
-        <v>36130</v>
+      <c r="B12" s="6">
+        <v>38718</v>
+      </c>
+      <c r="C12" s="6">
+        <v>38718</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="inlineStr">
+      <c r="A13" s="3" t="inlineStr">
         <is>
           <t>Last Obs. Date</t>
         </is>
       </c>
-      <c r="B13" s="4">
-        <v>40878</v>
-      </c>
-      <c r="C13" s="4">
-        <v>40878</v>
+      <c r="B13" s="6">
+        <v>41244</v>
+      </c>
+      <c r="C13" s="6">
+        <v>41244</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="inlineStr">
+      <c r="A14" s="3" t="inlineStr">
         <is>
           <t>Last Update Time</t>
         </is>
       </c>
-      <c r="B14" s="5">
-        <v>41781</v>
-      </c>
-      <c r="C14" s="5">
-        <v>41781</v>
+      <c r="B14" s="7">
+        <v>43839</v>
+      </c>
+      <c r="C14" s="7">
+        <v>43839</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="6" t="inlineStr">
+      <c r="A15" s="8" t="inlineStr">
         <is>
           <t>Series remarks</t>
         </is>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="inlineStr">
+      <c r="A16" s="4" t="inlineStr">
         <is>
           <t>Suggestions</t>
         </is>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="inlineStr">
+      <c r="A17" s="3" t="inlineStr">
         <is>
           <t>Mean</t>
         </is>
       </c>
       <c r="B17" s="2">
-        <v>1231.927</v>
+        <v>93374.63980350002</v>
       </c>
       <c r="C17" s="2">
-        <v>1231927</v>
+        <v>93374.63980350002</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="inlineStr">
+      <c r="A18" s="3" t="inlineStr">
         <is>
           <t>Variance</t>
         </is>
       </c>
       <c r="B18" s="2">
-        <v>196242.7157566667</v>
+        <v>67588679.72409233</v>
       </c>
       <c r="C18" s="2">
-        <v>196242715756.6667</v>
+        <v>67588679.72409233</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="inlineStr">
+      <c r="A19" s="3" t="inlineStr">
         <is>
           <t>Standard Deviation</t>
         </is>
       </c>
       <c r="B19" s="2">
-        <v>442.9929071177852</v>
+        <v>8221.233467314521</v>
       </c>
       <c r="C19" s="2">
-        <v>442992.9071177852</v>
+        <v>8221.233467314521</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="inlineStr">
+      <c r="A20" s="3" t="inlineStr">
         <is>
           <t>Skewness</t>
         </is>
       </c>
       <c r="B20" s="2">
-        <v>0.4639651794892382</v>
+        <v>0.5786993566761636</v>
       </c>
       <c r="C20" s="2">
-        <v>0.4639651794892377</v>
+        <v>0.5786993566761636</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="inlineStr">
+      <c r="A21" s="3" t="inlineStr">
         <is>
           <t>Kurtosis</t>
         </is>
       </c>
       <c r="B21" s="2">
-        <v>-0.8990137168045287</v>
+        <v>-0.2909755924600841</v>
       </c>
       <c r="C21" s="2">
-        <v>-0.8990137168045282</v>
+        <v>-0.2909755924600841</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="inlineStr">
+      <c r="A22" s="3" t="inlineStr">
         <is>
           <t>Coefficient Variation</t>
         </is>
       </c>
       <c r="B22" s="2">
-        <v>0.3595934719490564</v>
+        <v>0.08804567797654154</v>
       </c>
       <c r="C22" s="2">
-        <v>0.3595934719490564</v>
+        <v>0.08804567797654154</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="inlineStr">
+      <c r="A23" s="3" t="inlineStr">
         <is>
           <t>Min</t>
         </is>
       </c>
       <c r="B23" s="2">
-        <v>727.63</v>
+        <v>80465.44901</v>
       </c>
       <c r="C23" s="2">
-        <v>727630</v>
+        <v>80465.44901</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="inlineStr">
+      <c r="A24" s="3" t="inlineStr">
         <is>
           <t>Max</t>
         </is>
       </c>
       <c r="B24" s="2">
-        <v>2026.83</v>
+        <v>112482.41951</v>
       </c>
       <c r="C24" s="2">
-        <v>2026830</v>
+        <v>112482.41951</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="inlineStr">
+      <c r="A25" s="3" t="inlineStr">
         <is>
           <t>Median</t>
         </is>
       </c>
       <c r="B25" s="2">
-        <v>1181.145</v>
+        <v>92555.497445</v>
       </c>
       <c r="C25" s="2">
-        <v>1181145</v>
+        <v>92555.497445</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="inlineStr">
+      <c r="A26" s="3" t="inlineStr">
         <is>
           <t>No. of Obs</t>
         </is>
       </c>
       <c r="B26" s="2">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="C26" s="2">
-        <v>10</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="7">
-        <v>37226</v>
-      </c>
-      <c r="B27" s="8">
-        <v>791.02</v>
-      </c>
-      <c r="C27" s="8">
-        <v>791020</v>
+      <c r="A27" s="10">
+        <v>38718</v>
+      </c>
+      <c r="B27" s="11">
+        <v>102584.6417</v>
+      </c>
+      <c r="C27" s="11">
+        <v>102584.6417</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="7">
-        <v>37591</v>
-      </c>
-      <c r="B28" s="8">
-        <v>767.73</v>
-      </c>
-      <c r="C28" s="8">
-        <v>767730</v>
+      <c r="A28" s="10">
+        <v>38749</v>
+      </c>
+      <c r="B28" s="11">
+        <v>93467.54944</v>
+      </c>
+      <c r="C28" s="11">
+        <v>93467.54944</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="7">
-        <v>37956</v>
-      </c>
-      <c r="B29" s="8">
-        <v>727.63</v>
-      </c>
-      <c r="C29" s="8">
-        <v>727630</v>
+      <c r="A29" s="10">
+        <v>38777</v>
+      </c>
+      <c r="B29" s="11">
+        <v>98607.01212</v>
+      </c>
+      <c r="C29" s="11">
+        <v>98607.01212</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="7">
-        <v>38322</v>
-      </c>
-      <c r="B30" s="8">
-        <v>922.91</v>
-      </c>
-      <c r="C30" s="8">
-        <v>922910</v>
+      <c r="A30" s="10">
+        <v>38808</v>
+      </c>
+      <c r="B30" s="11">
+        <v>97395.64367</v>
+      </c>
+      <c r="C30" s="11">
+        <v>97395.64367</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="7">
-        <v>38687</v>
-      </c>
-      <c r="B31" s="8">
-        <v>1126.49</v>
-      </c>
-      <c r="C31" s="8">
-        <v>1126490</v>
+      <c r="A31" s="10">
+        <v>38838</v>
+      </c>
+      <c r="B31" s="11">
+        <v>92075.12437000001</v>
+      </c>
+      <c r="C31" s="11">
+        <v>92075.12437000001</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="7">
+      <c r="A32" s="10">
+        <v>38869</v>
+      </c>
+      <c r="B32" s="11">
+        <v>95232.23819</v>
+      </c>
+      <c r="C32" s="11">
+        <v>95232.23819</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="10">
+        <v>38899</v>
+      </c>
+      <c r="B33" s="11">
+        <v>100047.7073</v>
+      </c>
+      <c r="C33" s="11">
+        <v>100047.7073</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="10">
+        <v>38930</v>
+      </c>
+      <c r="B34" s="11">
+        <v>95307.24011</v>
+      </c>
+      <c r="C34" s="11">
+        <v>95307.24011</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="10">
+        <v>38961</v>
+      </c>
+      <c r="B35" s="11">
+        <v>89917.83798</v>
+      </c>
+      <c r="C35" s="11">
+        <v>89917.83798</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="10">
+        <v>38991</v>
+      </c>
+      <c r="B36" s="11">
+        <v>98395.83232</v>
+      </c>
+      <c r="C36" s="11">
+        <v>98395.83232</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="10">
+        <v>39022</v>
+      </c>
+      <c r="B37" s="11">
+        <v>98170.13428</v>
+      </c>
+      <c r="C37" s="11">
+        <v>98170.13428</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="10">
         <v>39052</v>
       </c>
-      <c r="B32" s="8">
-        <v>1235.8</v>
-      </c>
-      <c r="C32" s="8">
-        <v>1235800</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="7">
+      <c r="B38" s="11">
+        <v>98568.94826</v>
+      </c>
+      <c r="C38" s="11">
+        <v>98568.94826</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="10">
+        <v>39083</v>
+      </c>
+      <c r="B39" s="11">
+        <v>95524.24980000001</v>
+      </c>
+      <c r="C39" s="11">
+        <v>95524.24980000001</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="10">
+        <v>39114</v>
+      </c>
+      <c r="B40" s="11">
+        <v>83617.02267999999</v>
+      </c>
+      <c r="C40" s="11">
+        <v>83617.02267999999</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="10">
+        <v>39142</v>
+      </c>
+      <c r="B41" s="11">
+        <v>98607.01212</v>
+      </c>
+      <c r="C41" s="11">
+        <v>98607.01212</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="10">
+        <v>39173</v>
+      </c>
+      <c r="B42" s="11">
+        <v>87313.59292</v>
+      </c>
+      <c r="C42" s="11">
+        <v>87313.59292</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="10">
+        <v>39203</v>
+      </c>
+      <c r="B43" s="11">
+        <v>89092.12278000001</v>
+      </c>
+      <c r="C43" s="11">
+        <v>89092.12278000001</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="10">
+        <v>39234</v>
+      </c>
+      <c r="B44" s="11">
+        <v>83580.49619999999</v>
+      </c>
+      <c r="C44" s="11">
+        <v>83580.49619999999</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="10">
+        <v>39264</v>
+      </c>
+      <c r="B45" s="11">
+        <v>89062.82719</v>
+      </c>
+      <c r="C45" s="11">
+        <v>89062.82719</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="10">
+        <v>39295</v>
+      </c>
+      <c r="B46" s="11">
+        <v>93159.99709999999</v>
+      </c>
+      <c r="C46" s="11">
+        <v>93159.99709999999</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="10">
+        <v>39326</v>
+      </c>
+      <c r="B47" s="11">
+        <v>86589.08224</v>
+      </c>
+      <c r="C47" s="11">
+        <v>86589.08224</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="10">
+        <v>39356</v>
+      </c>
+      <c r="B48" s="11">
+        <v>93035.87052</v>
+      </c>
+      <c r="C48" s="11">
+        <v>93035.87052</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="10">
+        <v>39387</v>
+      </c>
+      <c r="B49" s="11">
+        <v>91356.15084</v>
+      </c>
+      <c r="C49" s="11">
+        <v>91356.15084</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="10">
         <v>39417</v>
       </c>
-      <c r="B33" s="8">
-        <v>1482.71</v>
-      </c>
-      <c r="C33" s="8">
-        <v>1482710</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="7">
+      <c r="B50" s="11">
+        <v>95688.73797</v>
+      </c>
+      <c r="C50" s="11">
+        <v>95688.73797</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="10">
+        <v>39448</v>
+      </c>
+      <c r="B51" s="11">
+        <v>96328.9469</v>
+      </c>
+      <c r="C51" s="11">
+        <v>96328.9469</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="10">
+        <v>39479</v>
+      </c>
+      <c r="B52" s="11">
+        <v>98953.75303000001</v>
+      </c>
+      <c r="C52" s="11">
+        <v>98953.75303000001</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="10">
+        <v>39508</v>
+      </c>
+      <c r="B53" s="11">
+        <v>90097.77222</v>
+      </c>
+      <c r="C53" s="11">
+        <v>90097.77222</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="10">
+        <v>39539</v>
+      </c>
+      <c r="B54" s="11">
+        <v>82155.80794</v>
+      </c>
+      <c r="C54" s="11">
+        <v>82155.80794</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="10">
+        <v>39569</v>
+      </c>
+      <c r="B55" s="11">
+        <v>90612.21428</v>
+      </c>
+      <c r="C55" s="11">
+        <v>90612.21428</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="10">
+        <v>39600</v>
+      </c>
+      <c r="B56" s="11">
+        <v>83468.69955999999</v>
+      </c>
+      <c r="C56" s="11">
+        <v>83468.69955999999</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="10">
+        <v>39630</v>
+      </c>
+      <c r="B57" s="11">
+        <v>85880.46527</v>
+      </c>
+      <c r="C57" s="11">
+        <v>85880.46527</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="10">
+        <v>39661</v>
+      </c>
+      <c r="B58" s="11">
+        <v>88071.95206</v>
+      </c>
+      <c r="C58" s="11">
+        <v>88071.95206</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="10">
+        <v>39692</v>
+      </c>
+      <c r="B59" s="11">
+        <v>86411.6581</v>
+      </c>
+      <c r="C59" s="11">
+        <v>86411.6581</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="10">
+        <v>39722</v>
+      </c>
+      <c r="B60" s="11">
+        <v>85863.46357000001</v>
+      </c>
+      <c r="C60" s="11">
+        <v>85863.46357000001</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="10">
+        <v>39753</v>
+      </c>
+      <c r="B61" s="11">
+        <v>87911.15601999999</v>
+      </c>
+      <c r="C61" s="11">
+        <v>87911.15601999999</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="10">
         <v>39783</v>
       </c>
-      <c r="B34" s="8">
-        <v>1598.61</v>
-      </c>
-      <c r="C34" s="8">
-        <v>1598610</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="7">
+      <c r="B62" s="11">
+        <v>91789.90822</v>
+      </c>
+      <c r="C62" s="11">
+        <v>91789.90822</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="10">
+        <v>39814</v>
+      </c>
+      <c r="B63" s="11">
+        <v>92030.37178</v>
+      </c>
+      <c r="C63" s="11">
+        <v>92030.37178</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="10">
+        <v>39845</v>
+      </c>
+      <c r="B64" s="11">
+        <v>80465.44901</v>
+      </c>
+      <c r="C64" s="11">
+        <v>80465.44901</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="10">
+        <v>39873</v>
+      </c>
+      <c r="B65" s="11">
+        <v>81558.51788</v>
+      </c>
+      <c r="C65" s="11">
+        <v>81558.51788</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="10">
+        <v>39904</v>
+      </c>
+      <c r="B66" s="11">
+        <v>81657.46119</v>
+      </c>
+      <c r="C66" s="11">
+        <v>81657.46119</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="10">
+        <v>39934</v>
+      </c>
+      <c r="B67" s="11">
+        <v>83308.78529</v>
+      </c>
+      <c r="C67" s="11">
+        <v>83308.78529</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="10">
+        <v>39965</v>
+      </c>
+      <c r="B68" s="11">
+        <v>84839.49019</v>
+      </c>
+      <c r="C68" s="11">
+        <v>84839.49019</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="10">
+        <v>39995</v>
+      </c>
+      <c r="B69" s="11">
+        <v>90413.66712</v>
+      </c>
+      <c r="C69" s="11">
+        <v>90413.66712</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="10">
+        <v>40026</v>
+      </c>
+      <c r="B70" s="11">
+        <v>85945.56743</v>
+      </c>
+      <c r="C70" s="11">
+        <v>85945.56743</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="10">
+        <v>40057</v>
+      </c>
+      <c r="B71" s="11">
+        <v>84672.43913</v>
+      </c>
+      <c r="C71" s="11">
+        <v>84672.43913</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="10">
+        <v>40087</v>
+      </c>
+      <c r="B72" s="11">
+        <v>85370.54401</v>
+      </c>
+      <c r="C72" s="11">
+        <v>85370.54401</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="10">
+        <v>40118</v>
+      </c>
+      <c r="B73" s="11">
+        <v>86578.4388</v>
+      </c>
+      <c r="C73" s="11">
+        <v>86578.4388</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="10">
         <v>40148</v>
       </c>
-      <c r="B35" s="8">
-        <v>1639.54</v>
-      </c>
-      <c r="C35" s="8">
-        <v>1639540</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="7">
+      <c r="B74" s="11">
+        <v>97156.65667</v>
+      </c>
+      <c r="C74" s="11">
+        <v>97156.65667</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="10">
+        <v>40179</v>
+      </c>
+      <c r="B75" s="11">
+        <v>97289.10838000001</v>
+      </c>
+      <c r="C75" s="11">
+        <v>97289.10838000001</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="10">
+        <v>40210</v>
+      </c>
+      <c r="B76" s="11">
+        <v>94671.4368</v>
+      </c>
+      <c r="C76" s="11">
+        <v>94671.4368</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="10">
+        <v>40238</v>
+      </c>
+      <c r="B77" s="11">
+        <v>110403.24314</v>
+      </c>
+      <c r="C77" s="11">
+        <v>110403.24314</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="10">
+        <v>40269</v>
+      </c>
+      <c r="B78" s="11">
+        <v>99640.66865000001</v>
+      </c>
+      <c r="C78" s="11">
+        <v>99640.66865000001</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="10">
+        <v>40299</v>
+      </c>
+      <c r="B79" s="11">
+        <v>110055.8161</v>
+      </c>
+      <c r="C79" s="11">
+        <v>110055.8161</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="10">
+        <v>40330</v>
+      </c>
+      <c r="B80" s="11">
+        <v>94930.02968000001</v>
+      </c>
+      <c r="C80" s="11">
+        <v>94930.02968000001</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="10">
+        <v>40360</v>
+      </c>
+      <c r="B81" s="11">
+        <v>111079.15933</v>
+      </c>
+      <c r="C81" s="11">
+        <v>111079.15933</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="10">
+        <v>40391</v>
+      </c>
+      <c r="B82" s="11">
+        <v>112482.41951</v>
+      </c>
+      <c r="C82" s="11">
+        <v>112482.41951</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="10">
+        <v>40422</v>
+      </c>
+      <c r="B83" s="11">
+        <v>105503.17811</v>
+      </c>
+      <c r="C83" s="11">
+        <v>105503.17811</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="10">
+        <v>40452</v>
+      </c>
+      <c r="B84" s="11">
+        <v>107765.02529</v>
+      </c>
+      <c r="C84" s="11">
+        <v>107765.02529</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="10">
+        <v>40483</v>
+      </c>
+      <c r="B85" s="11">
+        <v>101364.03607</v>
+      </c>
+      <c r="C85" s="11">
+        <v>101364.03607</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="10">
         <v>40513</v>
       </c>
-      <c r="B36" s="8">
-        <v>2026.83</v>
-      </c>
-      <c r="C36" s="8">
-        <v>2026830</v>
+      <c r="B86" s="11">
+        <v>109354.00938</v>
+      </c>
+      <c r="C86" s="11">
+        <v>109354.00938</v>
       </c>
     </row>
   </sheetData>
@@ -887,23 +1461,23 @@
         <MetadataSeries>
           <InitRow>1</InitRow>
           <InitCol>2</InitCol>
-          <EndRow>36</EndRow>
+          <EndRow>86</EndRow>
           <EndCol>2</EndCol>
-          <Name>Govt Revenue - Tax ; Individual Income</Name>
-          <DisplayName>Govt Revenue - Tax ; Individual Income</DisplayName>
-          <SeriesId>310901701</SeriesId>
-          <Code>SR4825055</Code>
+          <Name>(DC)Production: Liquefied Natural Gas: MMBTU</Name>
+          <DisplayName>(DC)Production: Liquefied Natural Gas: MMBTU</DisplayName>
+          <SeriesId>254123002</SeriesId>
+          <Code>SR4878432</Code>
           <Order>0</Order>
         </MetadataSeries>
         <MetadataSeries>
           <InitRow>1</InitRow>
           <InitCol>3</InitCol>
-          <EndRow>36</EndRow>
+          <EndRow>86</EndRow>
           <EndCol>3</EndCol>
-          <Name>Govt Revenue - Tax ; Individual Income</Name>
-          <DisplayName>Govt Revenue - Tax ; Individual Income</DisplayName>
-          <SeriesId>310901701</SeriesId>
-          <Code>SR4825055</Code>
+          <Name>(DC)Production: Liquefied Natural Gas: MMBTU</Name>
+          <DisplayName>(DC)Production: Liquefied Natural Gas: MMBTU</DisplayName>
+          <SeriesId>254123002</SeriesId>
+          <Code>SR4878432</Code>
           <Order>1</Order>
         </MetadataSeries>
       </MetaDataSeries>
@@ -913,7 +1487,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EFB5045E-F9B5-49B9-80D0-9F6DAB689F48}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F84954A9-42A3-4DE3-9D38-7908F7FB8B2F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
   </ds:schemaRefs>
